--- a/заказы/статистика филиалы/2023/12,23/13,12,23 КИ/дв 13,12,23 бррсч.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/13,12,23 КИ/дв 13,12,23 бррсч.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\13,12,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FB17F4-84D1-48F8-8B09-34B4649D22C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE06698A-CE60-4261-9A34-E234ED1E5CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7561,8 +7561,8 @@
   <dimension ref="A1:Y110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA8" sqref="AA8"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9687,6 +9687,9 @@
         <f>VLOOKUP(A33,[1]TDSheet!$A:$N,14,0)</f>
         <v>1.0071999999999999</v>
       </c>
+      <c r="W33" s="26" t="s">
+        <v>131</v>
+      </c>
       <c r="X33" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9747,9 +9750,6 @@
         <f>VLOOKUP(A34,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="W34" s="26" t="s">
-        <v>131</v>
-      </c>
       <c r="X34" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -14739,7 +14739,7 @@
       </c>
     </row>
     <row r="106" spans="1:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="37" t="s">
         <v>110</v>
       </c>
       <c r="B106" s="8" t="s">
